--- a/data/trans_orig/P64E-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P64E-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>4948</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1938</v>
+        <v>1889</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10856</v>
+        <v>10908</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01302232632924839</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005099659666045275</v>
+        <v>0.004972025510159362</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02857033473988243</v>
+        <v>0.02870547483439743</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -765,19 +765,19 @@
         <v>2763</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7385</v>
+        <v>8190</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01831012758870871</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005779621641594041</v>
+        <v>0.005766737229579436</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0489378990460172</v>
+        <v>0.05427336644275553</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -786,19 +786,19 @@
         <v>7711</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3689</v>
+        <v>3638</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14706</v>
+        <v>14051</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01452539550191186</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006948432143747306</v>
+        <v>0.006851794210344428</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02770077047316599</v>
+        <v>0.02646727103046187</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>5321</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2066</v>
+        <v>2058</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12731</v>
+        <v>11768</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01400317244451969</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.00543686683846483</v>
+        <v>0.005415558742075763</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03350390594330177</v>
+        <v>0.03096917033288662</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5016</v>
+        <v>4985</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.006592914134882718</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03324220224307457</v>
+        <v>0.03303387695919157</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -857,19 +857,19 @@
         <v>6316</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2157</v>
+        <v>3005</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>13443</v>
+        <v>14146</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01189679017329465</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0040633857069068</v>
+        <v>0.005659773462508848</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02532237110066537</v>
+        <v>0.02664659153795011</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>7916</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3800</v>
+        <v>3940</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14629</v>
+        <v>15073</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02083207358636498</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.009999898823190519</v>
+        <v>0.01036834152785935</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03849959571484764</v>
+        <v>0.03966697460595751</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>4976</v>
+        <v>5490</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.006482133034427724</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03297408943459273</v>
+        <v>0.0363799842894579</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>9</v>
@@ -928,19 +928,19 @@
         <v>8894</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3970</v>
+        <v>4033</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>15895</v>
+        <v>15987</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0167530713291259</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.007478786707897089</v>
+        <v>0.007597362663941292</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02994012315898573</v>
+        <v>0.03011441535525043</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>44313</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>32210</v>
+        <v>32883</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>58728</v>
+        <v>59279</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1166197057539958</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08476846172179321</v>
+        <v>0.08653878250987544</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1545542948056</v>
+        <v>0.1560056101300649</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -978,19 +978,19 @@
         <v>17677</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10305</v>
+        <v>10323</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27682</v>
+        <v>26363</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1171413977374966</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06828833913149558</v>
+        <v>0.06840939204875776</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1834359940905005</v>
+        <v>0.1746960145779548</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>58</v>
@@ -999,19 +999,19 @@
         <v>61991</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>48776</v>
+        <v>48467</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>76682</v>
+        <v>79263</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1167679978511359</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09187709758311061</v>
+        <v>0.09129503633989471</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1444416536965268</v>
+        <v>0.1493028331610063</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>317484</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>303248</v>
+        <v>300349</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>333212</v>
+        <v>330327</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8355227218858712</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7980593571036267</v>
+        <v>0.7904289842423202</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8769153012089014</v>
+        <v>0.8693216493621283</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>126</v>
@@ -1049,19 +1049,19 @@
         <v>128492</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>118087</v>
+        <v>118969</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>136271</v>
+        <v>136291</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8514734275044843</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7825181253467975</v>
+        <v>0.7883657405235036</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9030200087348947</v>
+        <v>0.9031518611939995</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>428</v>
@@ -1070,19 +1070,19 @@
         <v>445976</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>430010</v>
+        <v>427197</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>461631</v>
+        <v>461604</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8400567451445317</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8099819460898834</v>
+        <v>0.8046839239566255</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8695443120130094</v>
+        <v>0.8694948056302855</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>6071</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2050</v>
+        <v>2126</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13659</v>
+        <v>14826</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01100681608460973</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003715616646225715</v>
+        <v>0.003853617318950743</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02476183591852756</v>
+        <v>0.02687823117115461</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6873</v>
+        <v>6701</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.007325407174927803</v>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02596970605788946</v>
+        <v>0.02531875468447123</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -1216,19 +1216,19 @@
         <v>8010</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3859</v>
+        <v>3146</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16656</v>
+        <v>16710</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009813215065740514</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004727652897684472</v>
+        <v>0.003854558248870927</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02040499436650903</v>
+        <v>0.02047178635563244</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>14508</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7409</v>
+        <v>7337</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>24904</v>
+        <v>24379</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02630124376160111</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01343084501210395</v>
+        <v>0.01330065564036285</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04514825046963235</v>
+        <v>0.04419599290798966</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -1266,19 +1266,19 @@
         <v>3242</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8852</v>
+        <v>8893</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01224832018547908</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.003530890406743804</v>
+        <v>0.003543157335540456</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03344838812858843</v>
+        <v>0.03360110881610634</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>15</v>
@@ -1287,19 +1287,19 @@
         <v>17750</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>9937</v>
+        <v>10590</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>28363</v>
+        <v>30429</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0217449490630044</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01217416771960544</v>
+        <v>0.01297381140768746</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03474807146959414</v>
+        <v>0.03727819629087357</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>14447</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8177</v>
+        <v>7427</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>24205</v>
+        <v>24040</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02619084274071717</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01482373942671741</v>
+        <v>0.01346505644497571</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04388158895532413</v>
+        <v>0.04358193571527404</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -1337,19 +1337,19 @@
         <v>3161</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1022</v>
+        <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8324</v>
+        <v>7473</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01194265225903064</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.003862929130579802</v>
+        <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03145205388550353</v>
+        <v>0.02823601283094133</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>16</v>
@@ -1358,19 +1358,19 @@
         <v>17608</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>10280</v>
+        <v>10552</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>29437</v>
+        <v>29130</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02157123783041856</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01259421827419983</v>
+        <v>0.01292691195640975</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03606370117676362</v>
+        <v>0.03568736340272599</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>83302</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>67388</v>
+        <v>67793</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>102943</v>
+        <v>101912</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1510165314661658</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1221663392030311</v>
+        <v>0.1228998653872688</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1866241623239317</v>
+        <v>0.184754846395811</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -1408,19 +1408,19 @@
         <v>18803</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12025</v>
+        <v>11638</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29198</v>
+        <v>28382</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07104660881778135</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04543870497372633</v>
+        <v>0.04397518657499205</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1103278708848622</v>
+        <v>0.1072442401696855</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>94</v>
@@ -1429,19 +1429,19 @@
         <v>102105</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>82929</v>
+        <v>83957</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>121985</v>
+        <v>123925</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1250883655129164</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1015958612466805</v>
+        <v>0.1028559475643244</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1494441893090024</v>
+        <v>0.1518207161572902</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>433280</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>411803</v>
+        <v>412861</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>451179</v>
+        <v>452528</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7854845659469062</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7465497312422978</v>
+        <v>0.7484686996427375</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8179344062685774</v>
+        <v>0.820380387466831</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>220</v>
@@ -1479,19 +1479,19 @@
         <v>237508</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>225758</v>
+        <v>226404</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>246156</v>
+        <v>245867</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8974370115627811</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8530405796238045</v>
+        <v>0.8554830765344286</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9301165506680797</v>
+        <v>0.9290232266309725</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>614</v>
@@ -1500,19 +1500,19 @@
         <v>670787</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>646605</v>
+        <v>645097</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>692936</v>
+        <v>692445</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8217822325279202</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7921570852275982</v>
+        <v>0.7903091273999568</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8489164493115161</v>
+        <v>0.84831519389566</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>12113</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6179</v>
+        <v>6198</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21632</v>
+        <v>21623</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02999341349419662</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01530039628034094</v>
+        <v>0.01534538983491782</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05356109968707541</v>
+        <v>0.05353835079518027</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1625,19 +1625,19 @@
         <v>2942</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8481</v>
+        <v>7814</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01380473404132147</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004524348103689639</v>
+        <v>0.004486477196209896</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03979118456742764</v>
+        <v>0.03666157797284738</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -1646,19 +1646,19 @@
         <v>15056</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8696</v>
+        <v>8398</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24671</v>
+        <v>25079</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02440134336329817</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01409433356259305</v>
+        <v>0.01361067981472829</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03998457924765254</v>
+        <v>0.04064623076420355</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>8036</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3929</v>
+        <v>3906</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14996</v>
+        <v>15105</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01989761850501354</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.009727302798884084</v>
+        <v>0.009671412984383081</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03713026888890496</v>
+        <v>0.0374011446063565</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -1696,19 +1696,19 @@
         <v>3864</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>994</v>
+        <v>980</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9928</v>
+        <v>9585</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01812773295270195</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.004663646584531016</v>
+        <v>0.004596949906544749</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04658308273371023</v>
+        <v>0.0449739878707965</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>12</v>
@@ -1717,19 +1717,19 @@
         <v>11900</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6103</v>
+        <v>6743</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>19822</v>
+        <v>20645</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0192862453438486</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.00989152278534646</v>
+        <v>0.01092817845209472</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03212672224097738</v>
+        <v>0.03345992771971945</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>11477</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5852</v>
+        <v>6502</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>19749</v>
+        <v>20006</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02841743732502746</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01449048367221049</v>
+        <v>0.01610021367217288</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04890033382113898</v>
+        <v>0.04953547123143286</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>3</v>
@@ -1767,19 +1767,19 @@
         <v>2716</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>7147</v>
+        <v>7456</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01274300414922057</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.003728937972906234</v>
+        <v>0.003755600603544784</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03353190720914815</v>
+        <v>0.03498453710860895</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>15</v>
@@ -1788,19 +1788,19 @@
         <v>14193</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>8296</v>
+        <v>8699</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>22756</v>
+        <v>23379</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02300300374899997</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01344602872227234</v>
+        <v>0.0140991741089755</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03688068795410354</v>
+        <v>0.03789057394111563</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>77306</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>62684</v>
+        <v>63109</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>94469</v>
+        <v>95965</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1914126718058257</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1552079012574548</v>
+        <v>0.1562602083004961</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2339094864250032</v>
+        <v>0.2376111954657628</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>16</v>
@@ -1838,19 +1838,19 @@
         <v>16701</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10378</v>
+        <v>9685</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>27063</v>
+        <v>26757</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07835993057652073</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04869185540252585</v>
+        <v>0.04544335996612821</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1269756888614997</v>
+        <v>0.1255436746483334</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>90</v>
@@ -1859,19 +1859,19 @@
         <v>94007</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>76366</v>
+        <v>77952</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>112368</v>
+        <v>113789</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1523607615320505</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1237689750526026</v>
+        <v>0.126339968062224</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1821183780660945</v>
+        <v>0.1844216551147438</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>294939</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>275184</v>
+        <v>274323</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>312189</v>
+        <v>311727</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7302788588699367</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6813643361474276</v>
+        <v>0.6792323134473243</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7729904469789316</v>
+        <v>0.7718464254672524</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>187</v>
@@ -1909,19 +1909,19 @@
         <v>186909</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>175762</v>
+        <v>176782</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>195369</v>
+        <v>195952</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8769645982802353</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8246627186243345</v>
+        <v>0.8294499023629851</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9166574034583698</v>
+        <v>0.9193931021518121</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>455</v>
@@ -1930,19 +1930,19 @@
         <v>481848</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>459235</v>
+        <v>459520</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>501222</v>
+        <v>502205</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7809486460118028</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7442975732695062</v>
+        <v>0.744760588971307</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8123476152367448</v>
+        <v>0.813940623803771</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>7656</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3482</v>
+        <v>3460</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14667</v>
+        <v>15121</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01405723209477351</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006393808076204115</v>
+        <v>0.006351913212500613</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02692925602612359</v>
+        <v>0.02776377280012771</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6822</v>
+        <v>6984</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.005076370966954736</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01770988846427491</v>
+        <v>0.01812843324568471</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>10</v>
@@ -2076,19 +2076,19 @@
         <v>9612</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4433</v>
+        <v>5098</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>17681</v>
+        <v>17316</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01033663515397211</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.004767743093761464</v>
+        <v>0.005482434200282472</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01901443177798703</v>
+        <v>0.01862201277412723</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>6953</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3391</v>
+        <v>2642</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>14767</v>
+        <v>13441</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01276704222621104</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.006225582229650726</v>
+        <v>0.004850724114459426</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02711373408921315</v>
+        <v>0.02467809972104391</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>7</v>
@@ -2126,19 +2126,19 @@
         <v>8357</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3529</v>
+        <v>3397</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>17584</v>
+        <v>16310</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0216927397816139</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.009160436813386304</v>
+        <v>0.008817417976832779</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04564599404934583</v>
+        <v>0.04233796729972264</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>14</v>
@@ -2147,19 +2147,19 @@
         <v>15310</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>8267</v>
+        <v>8933</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>25106</v>
+        <v>25588</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01646478596665077</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.008891004305381369</v>
+        <v>0.009606616119199553</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02699919793198161</v>
+        <v>0.02751771647860418</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>16612</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9872</v>
+        <v>9787</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>26067</v>
+        <v>25634</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03049986117717244</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01812603697227214</v>
+        <v>0.01797018527376136</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04786078991700515</v>
+        <v>0.04706578131192857</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -2197,19 +2197,19 @@
         <v>2983</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>928</v>
+        <v>941</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8039</v>
+        <v>9413</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.007743062837252433</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.002408969138516869</v>
+        <v>0.002441604451892475</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02086703767245067</v>
+        <v>0.02443453220853917</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>20</v>
@@ -2218,19 +2218,19 @@
         <v>19594</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>12430</v>
+        <v>12563</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>29667</v>
+        <v>30669</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0210721600824886</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01336755055679857</v>
+        <v>0.01351031775487239</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03190449377721347</v>
+        <v>0.03298226663119742</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>76172</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>61370</v>
+        <v>61946</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>93845</v>
+        <v>92241</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1398568456296614</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1126784843724487</v>
+        <v>0.1137373757921779</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1723049386955148</v>
+        <v>0.1693609706789479</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>24</v>
@@ -2268,19 +2268,19 @@
         <v>25614</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>16082</v>
+        <v>15885</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>36760</v>
+        <v>36593</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06649098140252895</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04174569220766074</v>
+        <v>0.0412354004803439</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09542357174639318</v>
+        <v>0.0949914518628744</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>106</v>
@@ -2289,19 +2289,19 @@
         <v>101786</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>83904</v>
+        <v>83848</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>120825</v>
+        <v>122818</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1094627880757378</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09023169245329157</v>
+        <v>0.09017171347347366</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1299373007626453</v>
+        <v>0.132080911767228</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>437251</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>416715</v>
+        <v>417070</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>454106</v>
+        <v>452996</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8028190188721815</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7651147432954183</v>
+        <v>0.7657659445006084</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8337667722838218</v>
+        <v>0.8317286788587932</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>327</v>
@@ -2339,19 +2339,19 @@
         <v>346319</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>333242</v>
+        <v>333129</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>357230</v>
+        <v>358475</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.89899684501165</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8650504610316568</v>
+        <v>0.8647587930464654</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9273203217712387</v>
+        <v>0.9305523440899798</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>776</v>
@@ -2360,19 +2360,19 @@
         <v>783569</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>759240</v>
+        <v>758896</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>804094</v>
+        <v>805735</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8426636307211508</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8164999000420201</v>
+        <v>0.8161293943952067</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8647358268984831</v>
+        <v>0.8665008536968316</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>30789</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>21711</v>
+        <v>21212</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>43753</v>
+        <v>42922</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01637640700650971</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01154792957441238</v>
+        <v>0.01128245344846478</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02327161446169776</v>
+        <v>0.02282975304079278</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>10</v>
@@ -2485,19 +2485,19 @@
         <v>9600</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>4865</v>
+        <v>4803</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>17457</v>
+        <v>17183</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.009467812692563323</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.004798230518715039</v>
+        <v>0.004737004612665161</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01721770902200483</v>
+        <v>0.01694756899591686</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>40</v>
@@ -2506,19 +2506,19 @@
         <v>40389</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>29020</v>
+        <v>29609</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>55025</v>
+        <v>56721</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01395599024293792</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01002752920943755</v>
+        <v>0.01023094010477511</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01901317327849244</v>
+        <v>0.01959921871398768</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>34819</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>23145</v>
+        <v>24272</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>48125</v>
+        <v>47736</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01851944376908115</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01231036069662566</v>
+        <v>0.01290973284598821</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02559709315970671</v>
+        <v>0.02538988057756025</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>15</v>
@@ -2556,19 +2556,19 @@
         <v>16457</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>9344</v>
+        <v>9422</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>26989</v>
+        <v>27447</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01623080929749116</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.009215384115897859</v>
+        <v>0.009292809888921028</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02661818414845605</v>
+        <v>0.02707019087465811</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>47</v>
@@ -2577,19 +2577,19 @@
         <v>51275</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>38334</v>
+        <v>37910</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>67705</v>
+        <v>67321</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01771762374767069</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01324581191088382</v>
+        <v>0.01309938553663701</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02339483090945317</v>
+        <v>0.02326198983092249</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>50451</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>36783</v>
+        <v>38877</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>66993</v>
+        <v>65538</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02683437402216548</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01956427286287509</v>
+        <v>0.02067807162238722</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03563271685386514</v>
+        <v>0.03485880238657008</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>10</v>
@@ -2627,19 +2627,19 @@
         <v>9838</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>4958</v>
+        <v>5016</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>16981</v>
+        <v>17882</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.009702583729965445</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.004889966628170555</v>
+        <v>0.004947479865437619</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01674752125564451</v>
+        <v>0.01763641830198102</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>60</v>
@@ -2648,19 +2648,19 @@
         <v>60289</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>45830</v>
+        <v>46605</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>75253</v>
+        <v>77243</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0208322742419642</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0158361393453177</v>
+        <v>0.01610377307481772</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02600273737222028</v>
+        <v>0.02669059936779434</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>281094</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>251352</v>
+        <v>252723</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>312374</v>
+        <v>314320</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.149509512499909</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1336903191515455</v>
+        <v>0.134419777997574</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1661472021656188</v>
+        <v>0.1671822638213012</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>74</v>
@@ -2698,19 +2698,19 @@
         <v>78795</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>64275</v>
+        <v>62281</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>98363</v>
+        <v>97188</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.07771355186531467</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.06339323637302649</v>
+        <v>0.06142634095962098</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.09701301656991447</v>
+        <v>0.09585392817558001</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>348</v>
@@ -2719,19 +2719,19 @@
         <v>359889</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>325681</v>
+        <v>324022</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>394779</v>
+        <v>396690</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1243558938649415</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1125357365839847</v>
+        <v>0.1119625188204826</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1364117991760681</v>
+        <v>0.1370720631139309</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>1482953</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1449074</v>
+        <v>1444132</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1521074</v>
+        <v>1516272</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7887602627023347</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7707407698356409</v>
+        <v>0.7681118887805821</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8090361203796137</v>
+        <v>0.8064821558984938</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>860</v>
@@ -2769,19 +2769,19 @@
         <v>899228</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>877753</v>
+        <v>878369</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>917978</v>
+        <v>918846</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8868852424146654</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8657046286079376</v>
+        <v>0.8663123496556104</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.905377648148511</v>
+        <v>0.9062335305762321</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2273</v>
@@ -2790,19 +2790,19 @@
         <v>2382181</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2340833</v>
+        <v>2341418</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2421855</v>
+        <v>2421527</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8231382179024858</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.808850888407487</v>
+        <v>0.8090530787774985</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8368471361055791</v>
+        <v>0.8367338818772905</v>
       </c>
     </row>
     <row r="33">
@@ -3137,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10505</v>
+        <v>13203</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01009361774898514</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03877048680416842</v>
+        <v>0.0487304219953785</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5056</v>
+        <v>5724</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005762338251520055</v>
@@ -3167,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03115586786225378</v>
+        <v>0.03527243332628597</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -3176,19 +3176,19 @@
         <v>3670</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>925</v>
+        <v>869</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10863</v>
+        <v>11976</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.008471127780776883</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002134686490145654</v>
+        <v>0.002006166550347616</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02507385925901126</v>
+        <v>0.02764280183573208</v>
       </c>
     </row>
     <row r="5">
@@ -3205,19 +3205,19 @@
         <v>3668</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10970</v>
+        <v>11188</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01353738825480524</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.003808705705804107</v>
+        <v>0.003786720009209257</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04048912543867798</v>
+        <v>0.04129388290122112</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5601</v>
+        <v>5071</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.006140293842740551</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03450977639139792</v>
+        <v>0.0312465615084298</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -3247,19 +3247,19 @@
         <v>4664</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1533</v>
+        <v>1109</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>13052</v>
+        <v>11098</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01076644920908251</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.003538011841845569</v>
+        <v>0.002560201434742774</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03012590135643218</v>
+        <v>0.02561637070330278</v>
       </c>
     </row>
     <row r="6">
@@ -3276,19 +3276,19 @@
         <v>12749</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6839</v>
+        <v>6887</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>21551</v>
+        <v>21396</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04705427350140107</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02524279584347505</v>
+        <v>0.02541850291824654</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07953960085789324</v>
+        <v>0.07896788243918954</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -3300,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>4764</v>
+        <v>5617</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.005762338251520055</v>
@@ -3309,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02935471298114464</v>
+        <v>0.03460967150779316</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>13</v>
@@ -3318,19 +3318,19 @@
         <v>13684</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>7161</v>
+        <v>6994</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>22471</v>
+        <v>23354</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03158638445151486</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01652824102667191</v>
+        <v>0.01614412666217135</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05186822828699388</v>
+        <v>0.05390520909926996</v>
       </c>
     </row>
     <row r="7">
@@ -3347,19 +3347,19 @@
         <v>36699</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>26023</v>
+        <v>25352</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>48438</v>
+        <v>48102</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1354467805869682</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09604639800286666</v>
+        <v>0.09356809617748262</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1787748004317455</v>
+        <v>0.1775320024567006</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -3368,19 +3368,19 @@
         <v>11411</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6253</v>
+        <v>6210</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18937</v>
+        <v>19710</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07031291509278424</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0385290086124554</v>
+        <v>0.03826584100291072</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1166855348461195</v>
+        <v>0.1214525343905378</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>48</v>
@@ -3389,19 +3389,19 @@
         <v>48110</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>36819</v>
+        <v>36685</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>63402</v>
+        <v>61744</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1110477448247209</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08498643491613425</v>
+        <v>0.08467633005639162</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1463449956880244</v>
+        <v>0.1425172584238934</v>
       </c>
     </row>
     <row r="8">
@@ -3418,19 +3418,19 @@
         <v>215095</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>199790</v>
+        <v>201084</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>227835</v>
+        <v>226972</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7938679399078403</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7373802816285984</v>
+        <v>0.7421542427115803</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8408872933981112</v>
+        <v>0.8377029687072395</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>137</v>
@@ -3439,19 +3439,19 @@
         <v>148011</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>139802</v>
+        <v>139528</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>153438</v>
+        <v>154182</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9120221145614351</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8614390221396644</v>
+        <v>0.8597499104922279</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9454594313754885</v>
+        <v>0.9500436206518481</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>345</v>
@@ -3460,19 +3460,19 @@
         <v>363107</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>346565</v>
+        <v>346169</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>377985</v>
+        <v>378300</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8381282937339048</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7999452867567368</v>
+        <v>0.7990316029201424</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8724685714720145</v>
+        <v>0.8731960342349779</v>
       </c>
     </row>
     <row r="9">
@@ -3564,19 +3564,19 @@
         <v>6986</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2968</v>
+        <v>2117</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16178</v>
+        <v>14922</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01722222918789315</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00731720572451168</v>
+        <v>0.00521943206801049</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03988404875882197</v>
+        <v>0.03678659310254473</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -3588,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4165</v>
+        <v>5721</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.003765861134032537</v>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0153871766634726</v>
+        <v>0.02113617654679458</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -3606,19 +3606,19 @@
         <v>8005</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3125</v>
+        <v>3791</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16060</v>
+        <v>16929</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0118367561822954</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004620485438964321</v>
+        <v>0.00560566154938578</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02374704179438526</v>
+        <v>0.02503186617203434</v>
       </c>
     </row>
     <row r="11">
@@ -3635,19 +3635,19 @@
         <v>3854</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9530</v>
+        <v>9738</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.009502516442176498</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002380212830679852</v>
+        <v>0.002360738971616027</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02349507494877254</v>
+        <v>0.02400752189838055</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7432</v>
+        <v>6681</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.007923935078958003</v>
@@ -3668,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02745894633461263</v>
+        <v>0.02468230135178006</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>6</v>
@@ -3677,19 +3677,19 @@
         <v>5999</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2062</v>
+        <v>2235</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>12686</v>
+        <v>12494</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.008870740669938025</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.003049072872123935</v>
+        <v>0.003305538988860714</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01875791730560068</v>
+        <v>0.01847408707380035</v>
       </c>
     </row>
     <row r="12">
@@ -3706,19 +3706,19 @@
         <v>11403</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6197</v>
+        <v>6142</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>19936</v>
+        <v>20342</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02811285895963867</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0152784964389209</v>
+        <v>0.01514168244547689</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04914884633029388</v>
+        <v>0.05014998814917909</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -3727,19 +3727,19 @@
         <v>3155</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8488</v>
+        <v>8543</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0116548743314279</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.003821427282848602</v>
+        <v>0.003834921137422442</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03135887639432063</v>
+        <v>0.03156188778549422</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>14</v>
@@ -3748,19 +3748,19 @@
         <v>14558</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>8519</v>
+        <v>8189</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>24541</v>
+        <v>24371</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02152608669040493</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01259686894110728</v>
+        <v>0.01210861883288942</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03628808336499773</v>
+        <v>0.03603593103010001</v>
       </c>
     </row>
     <row r="13">
@@ -3777,19 +3777,19 @@
         <v>72577</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>57136</v>
+        <v>56760</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>91666</v>
+        <v>91279</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1789273719187484</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1408587578332339</v>
+        <v>0.1399329876520116</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2259862077124321</v>
+        <v>0.2250329375558278</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -3798,19 +3798,19 @@
         <v>32795</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21664</v>
+        <v>22101</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>46921</v>
+        <v>45459</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.121166769662562</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08003940476073282</v>
+        <v>0.08165450623336859</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.173357720078505</v>
+        <v>0.1679563942838325</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>90</v>
@@ -3819,19 +3819,19 @@
         <v>105373</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>87450</v>
+        <v>87609</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>129306</v>
+        <v>128234</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1558105722746932</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1293087088372827</v>
+        <v>0.1295437931340666</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1912001976302578</v>
+        <v>0.1896150230146849</v>
       </c>
     </row>
     <row r="14">
@@ -3848,19 +3848,19 @@
         <v>310804</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>291097</v>
+        <v>292001</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>328392</v>
+        <v>327543</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7662350234915433</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7176512336841966</v>
+        <v>0.7198801373433777</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8095956426141523</v>
+        <v>0.8075026057271262</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>214</v>
@@ -3869,19 +3869,19 @@
         <v>231548</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>217016</v>
+        <v>219132</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>243604</v>
+        <v>243136</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8554885597930195</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8017973610230084</v>
+        <v>0.8096151886594906</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.900030386791889</v>
+        <v>0.8982995116556783</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>501</v>
@@ -3890,19 +3890,19 @@
         <v>542352</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>516424</v>
+        <v>518222</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>562070</v>
+        <v>562105</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8019558441826684</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7636170381249392</v>
+        <v>0.7662747154831409</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8311113794787464</v>
+        <v>0.831162965140312</v>
       </c>
     </row>
     <row r="15">
@@ -3994,19 +3994,19 @@
         <v>8356</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3222</v>
+        <v>3052</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18062</v>
+        <v>19060</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02600188814097311</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01002528765887634</v>
+        <v>0.009498031887739249</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.056202792965061</v>
+        <v>0.05930865399688254</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -4018,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6106</v>
+        <v>7170</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.009263124165290924</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0284875546748712</v>
+        <v>0.03345235737496272</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -4036,19 +4036,19 @@
         <v>10342</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4875</v>
+        <v>4060</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21313</v>
+        <v>22170</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01930463262549828</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009100254844184535</v>
+        <v>0.007578769192087212</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0397850804542557</v>
+        <v>0.04138459584463054</v>
       </c>
     </row>
     <row r="17">
@@ -4065,19 +4065,19 @@
         <v>6092</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2022</v>
+        <v>2065</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13986</v>
+        <v>13954</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01895492089930096</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.006291846142370713</v>
+        <v>0.006426439425308899</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04351974055903383</v>
+        <v>0.04341880857095672</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -4086,19 +4086,19 @@
         <v>3067</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8970</v>
+        <v>8410</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01430976038357521</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.00458207535833495</v>
+        <v>0.004546632584274826</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04185025181135264</v>
+        <v>0.03923722914969782</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8</v>
@@ -4107,19 +4107,19 @@
         <v>9159</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4039</v>
+        <v>4163</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>17629</v>
+        <v>18836</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01709637107271842</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.007539521011084125</v>
+        <v>0.007770276294674009</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03290771678626871</v>
+        <v>0.03516026274352324</v>
       </c>
     </row>
     <row r="18">
@@ -4136,19 +4136,19 @@
         <v>4818</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11098</v>
+        <v>10563</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01499321261826982</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.005805228900366539</v>
+        <v>0.005800319257098373</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03453344577927143</v>
+        <v>0.03286878372497136</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2</v>
@@ -4160,7 +4160,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>11201</v>
+        <v>9798</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0135498134347269</v>
@@ -4169,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05225954754266276</v>
+        <v>0.04571206544864938</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>7</v>
@@ -4178,19 +4178,19 @@
         <v>7723</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>3253</v>
+        <v>3695</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>16386</v>
+        <v>16387</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01441570204717518</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.006072202524009526</v>
+        <v>0.006898087954262819</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03058677725800172</v>
+        <v>0.03058903705877824</v>
       </c>
     </row>
     <row r="19">
@@ -4207,19 +4207,19 @@
         <v>61414</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>47380</v>
+        <v>48042</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>76909</v>
+        <v>77797</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1910996536037249</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.147429261667963</v>
+        <v>0.149491008754203</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2393145636216097</v>
+        <v>0.2420774088935285</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>19</v>
@@ -4228,19 +4228,19 @@
         <v>21366</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13356</v>
+        <v>12588</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>32952</v>
+        <v>31059</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09968108482704301</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06231072370714105</v>
+        <v>0.05873024207614909</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.153737928393905</v>
+        <v>0.1449023311067341</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>77</v>
@@ -4249,19 +4249,19 @@
         <v>82780</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>65820</v>
+        <v>66962</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>102342</v>
+        <v>102655</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1545226688964957</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1228633636972145</v>
+        <v>0.124996480106141</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1910377948810866</v>
+        <v>0.1916221057682927</v>
       </c>
     </row>
     <row r="20">
@@ -4278,19 +4278,19 @@
         <v>240692</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>222553</v>
+        <v>221818</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>256429</v>
+        <v>255563</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7489503247377312</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6925093399879133</v>
+        <v>0.6902205552070286</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7979185647505737</v>
+        <v>0.7952263252126243</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>166</v>
@@ -4299,19 +4299,19 @@
         <v>185019</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>173803</v>
+        <v>173020</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>195630</v>
+        <v>195148</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8631962171893639</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8108674584340997</v>
+        <v>0.8072154979270513</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9127002210365156</v>
+        <v>0.9104514422571451</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>383</v>
@@ -4320,19 +4320,19 @@
         <v>425711</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>403616</v>
+        <v>401643</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>444113</v>
+        <v>443463</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7946606253581124</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7534161518378348</v>
+        <v>0.7497336615873438</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8290109093571298</v>
+        <v>0.8277985514409952</v>
       </c>
     </row>
     <row r="21">
@@ -4424,19 +4424,19 @@
         <v>11894</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5752</v>
+        <v>5895</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>22929</v>
+        <v>21430</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02867344068986684</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01386686864736381</v>
+        <v>0.01421079864286434</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05527505493093639</v>
+        <v>0.05166023314344367</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -4448,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4060</v>
+        <v>4915</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.003254848382819803</v>
@@ -4457,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01364186628984383</v>
+        <v>0.01651337121214126</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>11</v>
@@ -4466,19 +4466,19 @@
         <v>12863</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6623</v>
+        <v>6656</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>23152</v>
+        <v>23141</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01805448775330047</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.009296312020067888</v>
+        <v>0.009341811218363442</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03249604250063953</v>
+        <v>0.03247997475507471</v>
       </c>
     </row>
     <row r="23">
@@ -4495,19 +4495,19 @@
         <v>10490</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4749</v>
+        <v>5552</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>18725</v>
+        <v>18771</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02528882480612109</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01144934234154687</v>
+        <v>0.01338293684498761</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04513891830671763</v>
+        <v>0.04524971160684861</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3</v>
@@ -4516,19 +4516,19 @@
         <v>3905</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>11898</v>
+        <v>10523</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01312029560104898</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.003330025604218601</v>
+        <v>0.003311470985023705</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03997450227041827</v>
+        <v>0.03535385063575246</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>13</v>
@@ -4537,19 +4537,19 @@
         <v>14395</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>7706</v>
+        <v>7784</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>24862</v>
+        <v>25107</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02020526087878</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01081630544805759</v>
+        <v>0.01092578869050426</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03489624757668991</v>
+        <v>0.03523992651152848</v>
       </c>
     </row>
     <row r="24">
@@ -4566,19 +4566,19 @@
         <v>9985</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4819</v>
+        <v>4396</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>19888</v>
+        <v>18197</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02407076570486027</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01161610555303512</v>
+        <v>0.0105963431618194</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04794300618130144</v>
+        <v>0.04386706505552104</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>4</v>
@@ -4587,19 +4587,19 @@
         <v>3828</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8703</v>
+        <v>9541</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01286024340283277</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.003256178400517543</v>
+        <v>0.003259811197491429</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0292398549067184</v>
+        <v>0.0320538738366032</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>13</v>
@@ -4608,19 +4608,19 @@
         <v>13813</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>7655</v>
+        <v>7137</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>23701</v>
+        <v>24243</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.019387421824855</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01074426412636937</v>
+        <v>0.01001806193003944</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03326681295372678</v>
+        <v>0.0340267175105932</v>
       </c>
     </row>
     <row r="25">
@@ -4637,19 +4637,19 @@
         <v>90565</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>74754</v>
+        <v>74062</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>109410</v>
+        <v>108032</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.218323053270466</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.180207841315877</v>
+        <v>0.1785402362474649</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2637528558301346</v>
+        <v>0.2604294587060195</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>22</v>
@@ -4658,19 +4658,19 @@
         <v>23370</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>14933</v>
+        <v>15264</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>34496</v>
+        <v>33374</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07851756981464279</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05017168475684592</v>
+        <v>0.0512840963271991</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1158984878931667</v>
+        <v>0.1121279813058948</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>111</v>
@@ -4679,19 +4679,19 @@
         <v>113935</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>96057</v>
+        <v>94836</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>136893</v>
+        <v>135808</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1599174645125194</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1348240978770476</v>
+        <v>0.1331098528378481</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.192141196932511</v>
+        <v>0.1906182188080524</v>
       </c>
     </row>
     <row r="26">
@@ -4708,19 +4708,19 @@
         <v>291887</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>271235</v>
+        <v>272457</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>310289</v>
+        <v>312876</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7036439155286858</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6538581434208289</v>
+        <v>0.6568037986921667</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7480062277545942</v>
+        <v>0.7542413771756605</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>254</v>
@@ -4729,19 +4729,19 @@
         <v>265568</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>254175</v>
+        <v>253081</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>275303</v>
+        <v>275327</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8922470427986556</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8539683253090183</v>
+        <v>0.8502915358312374</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9249542662397248</v>
+        <v>0.9250344833947137</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>536</v>
@@ -4750,19 +4750,19 @@
         <v>557455</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>530211</v>
+        <v>533351</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>578403</v>
+        <v>579491</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7824353650305451</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7441956461700706</v>
+        <v>0.7486024024295347</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.811837325458484</v>
+        <v>0.8133637668624656</v>
       </c>
     </row>
     <row r="27">
@@ -4854,19 +4854,19 @@
         <v>29971</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>19761</v>
+        <v>19579</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>45634</v>
+        <v>46185</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02121459421496735</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01398774587592858</v>
+        <v>0.01385849911703015</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03230147756783162</v>
+        <v>0.03269089091030579</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>5</v>
@@ -4875,19 +4875,19 @@
         <v>4909</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1909</v>
+        <v>1945</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>10691</v>
+        <v>10798</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.005194745840775616</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.002019922378926084</v>
+        <v>0.002058639805719119</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01131376268115066</v>
+        <v>0.0114273076172265</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>29</v>
@@ -4896,19 +4896,19 @@
         <v>34880</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>23524</v>
+        <v>22526</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>51172</v>
+        <v>50111</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01479405925563122</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.009977633715483915</v>
+        <v>0.009554409019428197</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.021704072353093</v>
+        <v>0.02125402268126417</v>
       </c>
     </row>
     <row r="29">
@@ -4925,19 +4925,19 @@
         <v>24104</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>15626</v>
+        <v>14704</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>37054</v>
+        <v>35738</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0170617854813142</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01106079265611081</v>
+        <v>0.01040829655112671</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02622780006148755</v>
+        <v>0.02529618684204147</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>9</v>
@@ -4946,19 +4946,19 @@
         <v>10114</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>5011</v>
+        <v>5126</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>19211</v>
+        <v>20731</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01070289108021998</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.005303393608195574</v>
+        <v>0.005424335323607539</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02033017581301017</v>
+        <v>0.02193962953767884</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>31</v>
@@ -4967,19 +4967,19 @@
         <v>34218</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>23586</v>
+        <v>23436</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>48098</v>
+        <v>47955</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01451322803861543</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01000379216830009</v>
+        <v>0.009940052544210098</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02040029245617605</v>
+        <v>0.02033983204271382</v>
       </c>
     </row>
     <row r="30">
@@ -4996,19 +4996,19 @@
         <v>38956</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>28428</v>
+        <v>27300</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>54258</v>
+        <v>52244</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02757424958798805</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02012212453389699</v>
+        <v>0.01932367259571375</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03840533962229659</v>
+        <v>0.03697989224444408</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>10</v>
@@ -5017,19 +5017,19 @@
         <v>10822</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>4983</v>
+        <v>5070</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>19549</v>
+        <v>18196</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01145235671806592</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.005273226433787051</v>
+        <v>0.005365358705618314</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02068846727648456</v>
+        <v>0.0192564237330672</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>47</v>
@@ -5038,19 +5038,19 @@
         <v>49778</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>36574</v>
+        <v>37750</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>66074</v>
+        <v>66628</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02111281659785031</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01551239557231359</v>
+        <v>0.01601138093739653</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02802457129661157</v>
+        <v>0.02825981699078377</v>
       </c>
     </row>
     <row r="31">
@@ -5067,19 +5067,19 @@
         <v>261256</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>230462</v>
+        <v>233509</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>291518</v>
+        <v>293229</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1849248983513401</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1631281494167618</v>
+        <v>0.165285184467442</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2063458213077358</v>
+        <v>0.2075569928325068</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>77</v>
@@ -5088,19 +5088,19 @@
         <v>88942</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>71246</v>
+        <v>71404</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>108803</v>
+        <v>108550</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.09412524121062685</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.07539762533792148</v>
+        <v>0.07556510184735737</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1151432573836032</v>
+        <v>0.1148756384564177</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>326</v>
@@ -5109,19 +5109,19 @@
         <v>350198</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>315103</v>
+        <v>316322</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>385788</v>
+        <v>384660</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1485336442426633</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1336484648557251</v>
+        <v>0.1341655609544389</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1636288211089927</v>
+        <v>0.1631506236902353</v>
       </c>
     </row>
     <row r="32">
@@ -5138,19 +5138,19 @@
         <v>1058479</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1025526</v>
+        <v>1022084</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1093062</v>
+        <v>1089454</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7492244723643904</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.725899720930923</v>
+        <v>0.7234631373548904</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7737034443212938</v>
+        <v>0.7711493848614828</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>771</v>
@@ -5159,19 +5159,19 @@
         <v>830147</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>808124</v>
+        <v>806280</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>849274</v>
+        <v>850143</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8785247651503116</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8552179090582038</v>
+        <v>0.853267292084619</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8987659827186174</v>
+        <v>0.8996859772676813</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1765</v>
@@ -5180,19 +5180,19 @@
         <v>1888626</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1846937</v>
+        <v>1848750</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1927207</v>
+        <v>1926507</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8010462518652397</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7833642116809889</v>
+        <v>0.7841332218875766</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8174101359907567</v>
+        <v>0.8171131561681694</v>
       </c>
     </row>
     <row r="33">
@@ -5527,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6141</v>
+        <v>6078</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004248559864855012</v>
@@ -5536,7 +5536,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02556330229641215</v>
+        <v>0.02530312343782498</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -5561,7 +5561,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5108</v>
+        <v>5121</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002523353642325577</v>
@@ -5570,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01262967819193605</v>
+        <v>0.01266110232519195</v>
       </c>
     </row>
     <row r="5">
@@ -5587,19 +5587,19 @@
         <v>2937</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7823</v>
+        <v>8636</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01222854272300459</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.003975350362883395</v>
+        <v>0.003967425351985434</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03256590019033251</v>
+        <v>0.03595081763972199</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -5611,7 +5611,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6596</v>
+        <v>6560</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01149636055011354</v>
@@ -5620,7 +5620,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0401647421395842</v>
+        <v>0.03994505867878225</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -5629,19 +5629,19 @@
         <v>4826</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1898</v>
+        <v>1920</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10589</v>
+        <v>10725</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01193122662510847</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.004693647218313055</v>
+        <v>0.004746444964120821</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02618208209717212</v>
+        <v>0.02651796743502415</v>
       </c>
     </row>
     <row r="6">
@@ -5658,19 +5658,19 @@
         <v>5121</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11318</v>
+        <v>11508</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02131764275283733</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.008158573249886147</v>
+        <v>0.008201481481282928</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04711485771260036</v>
+        <v>0.04790683857674519</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -5679,19 +5679,19 @@
         <v>2704</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6946</v>
+        <v>8332</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01646451192246097</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.004934065567544324</v>
+        <v>0.004916192050048954</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04229420889193298</v>
+        <v>0.05073134332975086</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>8</v>
@@ -5700,19 +5700,19 @@
         <v>7825</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3712</v>
+        <v>3075</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>15014</v>
+        <v>14464</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01934693932069905</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.009179131910323176</v>
+        <v>0.007602041114117063</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03712191171698839</v>
+        <v>0.03576381058555821</v>
       </c>
     </row>
     <row r="7">
@@ -5729,19 +5729,19 @@
         <v>23801</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15342</v>
+        <v>15681</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34918</v>
+        <v>33603</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09908149768846272</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06386819186093355</v>
+        <v>0.06528153039652494</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1453617443368367</v>
+        <v>0.1398875722466613</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -5750,19 +5750,19 @@
         <v>8335</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3526</v>
+        <v>3527</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16655</v>
+        <v>15534</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05075158243614832</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02146829059030632</v>
+        <v>0.02147311881849711</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1014109094807358</v>
+        <v>0.09458729712771706</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>31</v>
@@ -5771,19 +5771,19 @@
         <v>32136</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>21927</v>
+        <v>22372</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>44690</v>
+        <v>43995</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07945624273622764</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05421582400763024</v>
+        <v>0.05531546075284223</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1104971305144051</v>
+        <v>0.1087788877591446</v>
       </c>
     </row>
     <row r="8">
@@ -5800,19 +5800,19 @@
         <v>207334</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>195552</v>
+        <v>195938</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>216769</v>
+        <v>216488</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8631237569708403</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8140762647687753</v>
+        <v>0.8156864055563259</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9024035047595309</v>
+        <v>0.9012341152628643</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>158</v>
@@ -5821,19 +5821,19 @@
         <v>151305</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>142986</v>
+        <v>142480</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>157178</v>
+        <v>157064</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9212875450912772</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8706351910403696</v>
+        <v>0.8675534586681654</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9570501669009968</v>
+        <v>0.9563529408033068</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>354</v>
@@ -5842,19 +5842,19 @@
         <v>358638</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>344863</v>
+        <v>345464</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>370682</v>
+        <v>370292</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8867422376756393</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8526815734636443</v>
+        <v>0.8541668282039556</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9165205897814409</v>
+        <v>0.9155561266085008</v>
       </c>
     </row>
     <row r="9">
@@ -5946,19 +5946,19 @@
         <v>7611</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3064</v>
+        <v>2975</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16419</v>
+        <v>16538</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01858030353842693</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007481350885077151</v>
+        <v>0.007263035958176046</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04008366026393527</v>
+        <v>0.04037453751982607</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -5967,19 +5967,19 @@
         <v>5315</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1806</v>
+        <v>1888</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12090</v>
+        <v>12755</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01956040689657282</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006646872815401056</v>
+        <v>0.006950017855657463</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04449372622864826</v>
+        <v>0.04694250715144723</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -5988,19 +5988,19 @@
         <v>12926</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6319</v>
+        <v>6171</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22969</v>
+        <v>22102</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01897117967343715</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00927419499740049</v>
+        <v>0.009057882515076167</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03371111119588623</v>
+        <v>0.03243893286524475</v>
       </c>
     </row>
     <row r="11">
@@ -6020,7 +6020,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11224</v>
+        <v>9977</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.006830867143081907</v>
@@ -6029,7 +6029,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02740081783902807</v>
+        <v>0.02435626868211178</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -6041,7 +6041,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4454</v>
+        <v>4470</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.003257476365634302</v>
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01639067256649039</v>
+        <v>0.0164515867408404</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>3</v>
@@ -6059,19 +6059,19 @@
         <v>3683</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>11050</v>
+        <v>10251</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.005405759102831774</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.001302462345129722</v>
+        <v>0.001305826093842688</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01621833193113602</v>
+        <v>0.01504596455398866</v>
       </c>
     </row>
     <row r="12">
@@ -6088,19 +6088,19 @@
         <v>13525</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7427</v>
+        <v>7180</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>23284</v>
+        <v>23049</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03301909746684136</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01813258183045069</v>
+        <v>0.01752894122285466</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05684456448447808</v>
+        <v>0.05626926856222528</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -6112,7 +6112,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8717</v>
+        <v>8937</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.008931467145990317</v>
@@ -6121,7 +6121,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03207896894789254</v>
+        <v>0.03288956436012971</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>14</v>
@@ -6130,19 +6130,19 @@
         <v>15952</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>8991</v>
+        <v>8817</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>25794</v>
+        <v>26182</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02341268222184062</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01319609679748876</v>
+        <v>0.01294046201234549</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03785857168790282</v>
+        <v>0.03842676767335143</v>
       </c>
     </row>
     <row r="13">
@@ -6159,19 +6159,19 @@
         <v>37390</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>26483</v>
+        <v>26817</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>51323</v>
+        <v>51870</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09128109749089167</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06465302180325319</v>
+        <v>0.06546992088903261</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1252955015449837</v>
+        <v>0.1266325161709521</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -6180,19 +6180,19 @@
         <v>16933</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10228</v>
+        <v>10367</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25863</v>
+        <v>26713</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06231839834460166</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03764134902927681</v>
+        <v>0.03815170246961443</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09518043143097407</v>
+        <v>0.09830980310723489</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>50</v>
@@ -6201,19 +6201,19 @@
         <v>54323</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>41257</v>
+        <v>41332</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>68552</v>
+        <v>69497</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07973045050282132</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06055243019142983</v>
+        <v>0.06066304358146989</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.100614374540639</v>
+        <v>0.1020009739027736</v>
       </c>
     </row>
     <row r="14">
@@ -6230,19 +6230,19 @@
         <v>348289</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>331097</v>
+        <v>330756</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>362401</v>
+        <v>363501</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8502886343607581</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.808316926904624</v>
+        <v>0.8074841077462855</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8847393867730023</v>
+        <v>0.8874263676470372</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>241</v>
@@ -6251,19 +6251,19 @@
         <v>246164</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>235188</v>
+        <v>234990</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>254584</v>
+        <v>254527</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9059322512472009</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8655381235497872</v>
+        <v>0.8648066045945431</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.936919644807587</v>
+        <v>0.9367086246998311</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>555</v>
@@ -6272,19 +6272,19 @@
         <v>594454</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>575522</v>
+        <v>575383</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>611001</v>
+        <v>611161</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8724799284990692</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8446943869515147</v>
+        <v>0.8444892544805056</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8967665962514358</v>
+        <v>0.8970007884324763</v>
       </c>
     </row>
     <row r="15">
@@ -6379,16 +6379,16 @@
         <v>1008</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8354</v>
+        <v>9458</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.008910227474826815</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002826428188933201</v>
+        <v>0.00282640521142041</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02343317072425813</v>
+        <v>0.0265312101135602</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -6400,7 +6400,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6805</v>
+        <v>7702</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.007166916127944958</v>
@@ -6409,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02534212446260591</v>
+        <v>0.02868111562300572</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -6418,19 +6418,19 @@
         <v>5101</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1998</v>
+        <v>1975</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11280</v>
+        <v>11222</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.008161232710637303</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003196640175692317</v>
+        <v>0.003160510571426344</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01804709027723817</v>
+        <v>0.01795462019017144</v>
       </c>
     </row>
     <row r="17">
@@ -6447,19 +6447,19 @@
         <v>5487</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1415</v>
+        <v>1421</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13373</v>
+        <v>13371</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01539019533602532</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.003969730868426145</v>
+        <v>0.003985410196725716</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03751322886620388</v>
+        <v>0.03750820295311436</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -6471,7 +6471,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5109</v>
+        <v>5254</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.003499890215196908</v>
@@ -6480,7 +6480,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01902537567721193</v>
+        <v>0.01956600954618392</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5</v>
@@ -6489,19 +6489,19 @@
         <v>6426</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2050</v>
+        <v>2236</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>14630</v>
+        <v>15353</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01028165503079219</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.003279047907102781</v>
+        <v>0.003576836358836853</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02340714855254284</v>
+        <v>0.02456309770079635</v>
       </c>
     </row>
     <row r="18">
@@ -6518,19 +6518,19 @@
         <v>7964</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3232</v>
+        <v>3214</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16026</v>
+        <v>15520</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02234041267795947</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.009065928839403792</v>
+        <v>0.009014952811016271</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04495463375197976</v>
+        <v>0.04353574134893384</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>3</v>
@@ -6539,19 +6539,19 @@
         <v>2976</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>7981</v>
+        <v>8354</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01108171621489621</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.003462363101842698</v>
+        <v>0.00347016684594067</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02971824295664124</v>
+        <v>0.03110803459454637</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>10</v>
@@ -6560,19 +6560,19 @@
         <v>10940</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>5300</v>
+        <v>5223</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>19333</v>
+        <v>18443</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01750323616470131</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.008478823286785989</v>
+        <v>0.008355939631189564</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03093141883973585</v>
+        <v>0.02950662454657813</v>
       </c>
     </row>
     <row r="19">
@@ -6589,19 +6589,19 @@
         <v>57469</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>43875</v>
+        <v>43260</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>73773</v>
+        <v>74096</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1612042579824533</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.123072810232156</v>
+        <v>0.1213474427768144</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2069411294257844</v>
+        <v>0.2078470612392407</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>22</v>
@@ -6610,19 +6610,19 @@
         <v>23763</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>15436</v>
+        <v>15085</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>34776</v>
+        <v>34066</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08848939077251891</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05748279748822099</v>
+        <v>0.05617405045623344</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.129499325476992</v>
+        <v>0.1268574872759823</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>71</v>
@@ -6631,19 +6631,19 @@
         <v>81231</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>65549</v>
+        <v>63985</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>101426</v>
+        <v>101134</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1299631059550826</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1048722999270658</v>
+        <v>0.1023702376893076</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1622724516725117</v>
+        <v>0.1618056796272871</v>
       </c>
     </row>
     <row r="20">
@@ -6660,19 +6660,19 @@
         <v>282399</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>265277</v>
+        <v>263517</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>297018</v>
+        <v>296866</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7921549065287351</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7441250254772066</v>
+        <v>0.7391875749377628</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8331619740897753</v>
+        <v>0.8327367119554647</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>235</v>
@@ -6681,19 +6681,19 @@
         <v>238936</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>228595</v>
+        <v>227951</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>248272</v>
+        <v>248312</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.889762086669443</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8512535767766269</v>
+        <v>0.8488545981982031</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.924528790962663</v>
+        <v>0.924677844694562</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>493</v>
@@ -6702,19 +6702,19 @@
         <v>521336</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>497942</v>
+        <v>499138</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>539607</v>
+        <v>540267</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8340907701387866</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7966623808926399</v>
+        <v>0.7985759141718028</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8633227920702008</v>
+        <v>0.864379286072272</v>
       </c>
     </row>
     <row r="21">
@@ -6806,19 +6806,19 @@
         <v>6286</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2490</v>
+        <v>2808</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13907</v>
+        <v>12912</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01582580532256481</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006268316741364846</v>
+        <v>0.007069446020529372</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0350114808686296</v>
+        <v>0.03250676024355569</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -6840,19 +6840,19 @@
         <v>6286</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2447</v>
+        <v>2798</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>12812</v>
+        <v>13085</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.008759034132396825</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.003409501351129648</v>
+        <v>0.003898446340229752</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01785220600435961</v>
+        <v>0.01823170048537923</v>
       </c>
     </row>
     <row r="23">
@@ -6869,19 +6869,19 @@
         <v>7672</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3650</v>
+        <v>3071</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>16047</v>
+        <v>15588</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01931553487198166</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.009188003280917404</v>
+        <v>0.007731200626161215</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04039811630455062</v>
+        <v>0.03924373344820969</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2</v>
@@ -6893,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>6639</v>
+        <v>6793</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.00593906095726543</v>
@@ -6902,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02071690890357131</v>
+        <v>0.02119538107079255</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>9</v>
@@ -6911,19 +6911,19 @@
         <v>9576</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4767</v>
+        <v>4687</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>19255</v>
+        <v>17773</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01334247514074831</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.006642890017368529</v>
+        <v>0.006530533002038584</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02682895055096301</v>
+        <v>0.02476484847723637</v>
       </c>
     </row>
     <row r="24">
@@ -6940,19 +6940,19 @@
         <v>17049</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10424</v>
+        <v>9798</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>27981</v>
+        <v>26460</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04292094351689284</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02624306804312519</v>
+        <v>0.02466634480050984</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07044360573188364</v>
+        <v>0.06661379983502116</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>8</v>
@@ -6961,19 +6961,19 @@
         <v>8957</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4138</v>
+        <v>4637</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>17481</v>
+        <v>17668</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02794875656783041</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01291265489967799</v>
+        <v>0.01446882600934986</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05454850483963603</v>
+        <v>0.05513100609317947</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>23</v>
@@ -6982,19 +6982,19 @@
         <v>26006</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>16534</v>
+        <v>17459</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>37727</v>
+        <v>39873</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0362353425487965</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02303808956668925</v>
+        <v>0.02432662591438054</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05256823055153716</v>
+        <v>0.05555808107942501</v>
       </c>
     </row>
     <row r="25">
@@ -7011,19 +7011,19 @@
         <v>53960</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>40365</v>
+        <v>41852</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>67402</v>
+        <v>67632</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1358464526699615</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1016195755762979</v>
+        <v>0.1053646805881578</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1696872674923567</v>
+        <v>0.1702672457768972</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>22</v>
@@ -7032,19 +7032,19 @@
         <v>23835</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>15849</v>
+        <v>15691</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>35557</v>
+        <v>34802</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07437523481337099</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04945528706267042</v>
+        <v>0.04896336371767183</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1109520297107466</v>
+        <v>0.1085975176028765</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>75</v>
@@ -7053,19 +7053,19 @@
         <v>77795</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>62141</v>
+        <v>61480</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>95117</v>
+        <v>95133</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1083974210081028</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08658484987530825</v>
+        <v>0.08566427802261174</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1325327890233894</v>
+        <v>0.1325554407710724</v>
       </c>
     </row>
     <row r="26">
@@ -7082,19 +7082,19 @@
         <v>312246</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>294703</v>
+        <v>297229</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>328120</v>
+        <v>328695</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7860912636185993</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7419257460383994</v>
+        <v>0.7482859117820371</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8260554844075236</v>
+        <v>0.8275034945381833</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>271</v>
@@ -7103,19 +7103,19 @@
         <v>285776</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>271579</v>
+        <v>273146</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>294898</v>
+        <v>296064</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8917369476615331</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.847438377407816</v>
+        <v>0.8523266821257663</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9202030154595491</v>
+        <v>0.9238411039972956</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>579</v>
@@ -7124,19 +7124,19 @@
         <v>598021</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>579044</v>
+        <v>578419</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>617679</v>
+        <v>617798</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8332657271699556</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8068232515792092</v>
+        <v>0.8059522913146776</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8606554383843973</v>
+        <v>0.8608221088742208</v>
       </c>
     </row>
     <row r="27">
@@ -7228,19 +7228,19 @@
         <v>18094</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>10382</v>
+        <v>9895</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>29151</v>
+        <v>27836</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01289171733712194</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.007397309049639162</v>
+        <v>0.007049815137971237</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02076960374557328</v>
+        <v>0.01983312111376644</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>7</v>
@@ -7249,19 +7249,19 @@
         <v>7240</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2794</v>
+        <v>2819</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>14490</v>
+        <v>14555</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.007063300516272937</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.002726290146518547</v>
+        <v>0.002750547161555125</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01413725933887033</v>
+        <v>0.01420026146127227</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>23</v>
@@ -7270,19 +7270,19 @@
         <v>25334</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>16767</v>
+        <v>16135</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>37143</v>
+        <v>37695</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01043178943631764</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.006904239392898576</v>
+        <v>0.006643938842395154</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01529470713469806</v>
+        <v>0.01552202206930167</v>
       </c>
     </row>
     <row r="29">
@@ -7299,19 +7299,19 @@
         <v>18894</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>10657</v>
+        <v>11602</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>31172</v>
+        <v>30090</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01346200331041959</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.007593014159581048</v>
+        <v>0.008266527225342947</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02220987128206897</v>
+        <v>0.02143907729956856</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>6</v>
@@ -7320,19 +7320,19 @@
         <v>5616</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1958</v>
+        <v>1887</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>12191</v>
+        <v>11934</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.005479554465579228</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.001910635340358572</v>
+        <v>0.001841201917866341</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01189355594620111</v>
+        <v>0.01164304426804628</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>22</v>
@@ -7341,19 +7341,19 @@
         <v>24511</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>15810</v>
+        <v>15823</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>36790</v>
+        <v>37249</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01009294971769704</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.006510348635912004</v>
+        <v>0.006515734137332548</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01514913543699056</v>
+        <v>0.01533817437682588</v>
       </c>
     </row>
     <row r="30">
@@ -7370,19 +7370,19 @@
         <v>43659</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>31698</v>
+        <v>30615</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>60426</v>
+        <v>57965</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03110636008383112</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02258406997139865</v>
+        <v>0.02181249219357975</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04305281001565717</v>
+        <v>0.04129943172280386</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>16</v>
@@ -7391,19 +7391,19 @@
         <v>17064</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>10032</v>
+        <v>10138</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>27889</v>
+        <v>26635</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01664788871277419</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.009787220465817967</v>
+        <v>0.009891424233656593</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02720989019429163</v>
+        <v>0.02598572057594691</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>55</v>
@@ -7412,19 +7412,19 @@
         <v>60722</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>46033</v>
+        <v>46177</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>78072</v>
+        <v>78969</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02500405164881732</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01895527422427594</v>
+        <v>0.0190147623239766</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03214840759998689</v>
+        <v>0.03251754969870563</v>
       </c>
     </row>
     <row r="31">
@@ -7441,19 +7441,19 @@
         <v>172619</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>147724</v>
+        <v>150114</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>198221</v>
+        <v>198227</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1229889004813821</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1052515134691238</v>
+        <v>0.1069542831210201</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1412296992543315</v>
+        <v>0.1412340467213211</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>68</v>
@@ -7462,19 +7462,19 @@
         <v>72867</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>57825</v>
+        <v>56296</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>91179</v>
+        <v>89946</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.07109151362109073</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05641678019122085</v>
+        <v>0.0549248018502794</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.08895782374169704</v>
+        <v>0.08775541731898787</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>227</v>
@@ -7483,19 +7483,19 @@
         <v>245486</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>215372</v>
+        <v>214437</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>282109</v>
+        <v>275535</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.101085211393842</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.08868495244844245</v>
+        <v>0.08830002480696654</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1161659587052477</v>
+        <v>0.1134588501002309</v>
       </c>
     </row>
     <row r="32">
@@ -7512,19 +7512,19 @@
         <v>1150268</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1119050</v>
+        <v>1121922</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1179423</v>
+        <v>1177664</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8195510187872452</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7973084388419667</v>
+        <v>0.7993548660521989</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8403235364233271</v>
+        <v>0.8390702412318866</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>905</v>
@@ -7533,19 +7533,19 @@
         <v>922182</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>901319</v>
+        <v>902076</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>939119</v>
+        <v>940971</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.899717742684283</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8793628975321526</v>
+        <v>0.8801017416402245</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9162419910120327</v>
+        <v>0.9180487736201578</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1981</v>
@@ -7554,19 +7554,19 @@
         <v>2072450</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2034901</v>
+        <v>2033124</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2108248</v>
+        <v>2106782</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.853385997803326</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8379241871265281</v>
+        <v>0.8371925819497096</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8681269297657829</v>
+        <v>0.867523168364709</v>
       </c>
     </row>
     <row r="33">
@@ -7901,7 +7901,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8523</v>
+        <v>8971</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006192848566339536</v>
@@ -7910,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0233091852992236</v>
+        <v>0.02453451756456507</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -7935,16 +7935,16 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8579</v>
+        <v>7996</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.00352498112807222</v>
+        <v>0.003524981128072219</v>
       </c>
       <c r="V4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01335487858559861</v>
+        <v>0.01244800338020974</v>
       </c>
     </row>
     <row r="5">
@@ -7961,19 +7961,19 @@
         <v>3756</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>986</v>
+        <v>953</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8942</v>
+        <v>9509</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01027248166090128</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.00269660823977292</v>
+        <v>0.002605413299763155</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02445403284314463</v>
+        <v>0.02600648426840802</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -7982,19 +7982,19 @@
         <v>2115</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>597</v>
+        <v>566</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6499</v>
+        <v>5908</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.00764392375674454</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.002157625115184949</v>
+        <v>0.002047057361245649</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02348547976565562</v>
+        <v>0.02134745483829704</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -8003,19 +8003,19 @@
         <v>5871</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2368</v>
+        <v>2408</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11663</v>
+        <v>11944</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.009140103892096098</v>
+        <v>0.009140103892096097</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.003686185987528002</v>
+        <v>0.003748856176431241</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01815586895525515</v>
+        <v>0.01859355421129629</v>
       </c>
     </row>
     <row r="6">
@@ -8032,19 +8032,19 @@
         <v>11767</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5226</v>
+        <v>5229</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>26097</v>
+        <v>29183</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03218141474322717</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01429223774004</v>
+        <v>0.01430040454002129</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07137215214143076</v>
+        <v>0.07981225843990826</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -8053,19 +8053,19 @@
         <v>3017</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>917</v>
+        <v>728</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7531</v>
+        <v>7435</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01090153799677135</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.003313590645904304</v>
+        <v>0.002629545680649816</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02721278002890601</v>
+        <v>0.02686705594884536</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>13</v>
@@ -8074,19 +8074,19 @@
         <v>14784</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>8223</v>
+        <v>7534</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>30862</v>
+        <v>28967</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.02301408412726671</v>
+        <v>0.0230140841272667</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01280111499912893</v>
+        <v>0.01172893852272816</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04804229574701645</v>
+        <v>0.04509302883589401</v>
       </c>
     </row>
     <row r="7">
@@ -8103,19 +8103,19 @@
         <v>40183</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>28194</v>
+        <v>28092</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>59203</v>
+        <v>56257</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1098957420342548</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07710618418028924</v>
+        <v>0.07682803839167943</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1619140033390937</v>
+        <v>0.1538571099136313</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -8124,19 +8124,19 @@
         <v>12441</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7904</v>
+        <v>7964</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19005</v>
+        <v>18847</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.0449551188875148</v>
+        <v>0.04495511888751479</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02856131834275355</v>
+        <v>0.02877727939496081</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06867633876422823</v>
+        <v>0.06810354430276881</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>58</v>
@@ -8145,19 +8145,19 @@
         <v>52624</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>38684</v>
+        <v>38791</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>69773</v>
+        <v>70564</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.08191944452624343</v>
+        <v>0.0819194445262434</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06021917374807244</v>
+        <v>0.06038547932894581</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1086155190286576</v>
+        <v>0.1098467523431026</v>
       </c>
     </row>
     <row r="8">
@@ -8174,19 +8174,19 @@
         <v>307676</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>288761</v>
+        <v>289345</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>322379</v>
+        <v>323174</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8414575129952773</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7897256904941459</v>
+        <v>0.7913246764674614</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8816674246933096</v>
+        <v>0.8838421448892693</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>377</v>
@@ -8195,19 +8195,19 @@
         <v>259165</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>251981</v>
+        <v>251455</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>264812</v>
+        <v>264839</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9364994193589693</v>
+        <v>0.9364994193589694</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.910538337994686</v>
+        <v>0.9086408042412213</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9569043476524109</v>
+        <v>0.9570019175372425</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>662</v>
@@ -8216,19 +8216,19 @@
         <v>566841</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>547193</v>
+        <v>548272</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>583608</v>
+        <v>583743</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8824013863263215</v>
+        <v>0.8824013863263214</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.851814579042582</v>
+        <v>0.8534943172622476</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9085026400625067</v>
+        <v>0.9087123601004156</v>
       </c>
     </row>
     <row r="9">
@@ -8320,19 +8320,19 @@
         <v>15394</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8150</v>
+        <v>8942</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24791</v>
+        <v>25486</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02495251314810538</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0132101222260947</v>
+        <v>0.01449494083650128</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04018560509834183</v>
+        <v>0.04131253475194777</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -8341,19 +8341,19 @@
         <v>3600</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1227</v>
+        <v>1299</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8292</v>
+        <v>7776</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.008100843504457399</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002760574757685073</v>
+        <v>0.002922828942607901</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01865974879928869</v>
+        <v>0.01749876831105094</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -8362,19 +8362,19 @@
         <v>18994</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11719</v>
+        <v>10728</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30346</v>
+        <v>29495</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01789634792491401</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01104225013845229</v>
+        <v>0.01010804334169895</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02859318980688884</v>
+        <v>0.02779093505268183</v>
       </c>
     </row>
     <row r="11">
@@ -8391,19 +8391,19 @@
         <v>13892</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7154</v>
+        <v>6908</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>24582</v>
+        <v>23389</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02251817758344327</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01159580838616521</v>
+        <v>0.01119760965996474</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03984609642346053</v>
+        <v>0.03791311110679978</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -8412,19 +8412,19 @@
         <v>6984</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3470</v>
+        <v>3367</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>12952</v>
+        <v>13255</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.01571671236632712</v>
+        <v>0.01571671236632711</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.007807552815102077</v>
+        <v>0.007577456600414286</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02914533170065368</v>
+        <v>0.02982672352891036</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>21</v>
@@ -8433,19 +8433,19 @@
         <v>20876</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>13083</v>
+        <v>12327</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>32966</v>
+        <v>30960</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.01967025430066927</v>
+        <v>0.01967025430066928</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01232721135357839</v>
+        <v>0.0116146057853613</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03106194651742475</v>
+        <v>0.02917155272574537</v>
       </c>
     </row>
     <row r="12">
@@ -8462,19 +8462,19 @@
         <v>28980</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17970</v>
+        <v>19805</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>43373</v>
+        <v>44290</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04697628829252091</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02912809655144146</v>
+        <v>0.03210410047950658</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07030651233891902</v>
+        <v>0.07179287556353212</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>9</v>
@@ -8483,19 +8483,19 @@
         <v>5792</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2906</v>
+        <v>2868</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>11646</v>
+        <v>10522</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01303364571398954</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.006538792881340576</v>
+        <v>0.006454485061789553</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02620765074753449</v>
+        <v>0.02367683148712852</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>33</v>
@@ -8504,19 +8504,19 @@
         <v>34772</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>23179</v>
+        <v>24350</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>50284</v>
+        <v>49541</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.03276375628765063</v>
+        <v>0.03276375628765062</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02184020603519779</v>
+        <v>0.02294383646354132</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04737975429565085</v>
+        <v>0.04667969757524308</v>
       </c>
     </row>
     <row r="13">
@@ -8533,19 +8533,19 @@
         <v>60701</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>46663</v>
+        <v>45300</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>78023</v>
+        <v>76361</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0983952790528312</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07563924400411386</v>
+        <v>0.07343066724985296</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.126473172744005</v>
+        <v>0.1237791715376106</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>46</v>
@@ -8554,19 +8554,19 @@
         <v>33422</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24889</v>
+        <v>25099</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>44000</v>
+        <v>44006</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.07520755519007569</v>
+        <v>0.07520755519007567</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05600691876046089</v>
+        <v>0.05647830824108324</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09901191015475912</v>
+        <v>0.09902552381748503</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>103</v>
@@ -8575,19 +8575,19 @@
         <v>94123</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>77731</v>
+        <v>75884</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>112286</v>
+        <v>114321</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08868606838200527</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07324109881280762</v>
+        <v>0.07150039913309876</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1057993784266607</v>
+        <v>0.1077174886629441</v>
       </c>
     </row>
     <row r="14">
@@ -8604,19 +8604,19 @@
         <v>497947</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>473399</v>
+        <v>476668</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>518366</v>
+        <v>518551</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8071577419230992</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7673666379940237</v>
+        <v>0.772665854284651</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8402558933525479</v>
+        <v>0.8405566417943341</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>519</v>
@@ -8625,19 +8625,19 @@
         <v>394594</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>382097</v>
+        <v>382698</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>405767</v>
+        <v>404929</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8879412432251502</v>
+        <v>0.8879412432251501</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8598189881587428</v>
+        <v>0.8611714310875423</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9130831881531697</v>
+        <v>0.9111981350730892</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>928</v>
@@ -8646,19 +8646,19 @@
         <v>892542</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>866938</v>
+        <v>864778</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>915883</v>
+        <v>916055</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8409835731047607</v>
+        <v>0.8409835731047608</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.816858662467091</v>
+        <v>0.8148237627314505</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8629761399679285</v>
+        <v>0.8631380962682818</v>
       </c>
     </row>
     <row r="15">
@@ -8750,19 +8750,19 @@
         <v>11776</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5730</v>
+        <v>6185</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21642</v>
+        <v>22923</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0288714475685385</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01404925618774351</v>
+        <v>0.01516401420781435</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05306108574804289</v>
+        <v>0.05620137997105262</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -8774,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5029</v>
+        <v>4933</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.004336714680603407</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.015235245951332</v>
+        <v>0.01494587022809615</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -8792,19 +8792,19 @@
         <v>13207</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6446</v>
+        <v>7022</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>23783</v>
+        <v>25472</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01789704811661731</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008735402343426965</v>
+        <v>0.009515062766517609</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03222834413607513</v>
+        <v>0.03451735785714462</v>
       </c>
     </row>
     <row r="17">
@@ -8821,19 +8821,19 @@
         <v>7619</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2807</v>
+        <v>2678</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16141</v>
+        <v>15106</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01867937506587145</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.006883330477786972</v>
+        <v>0.006565818920993759</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03957393040598188</v>
+        <v>0.03703674620523238</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -8842,19 +8842,19 @@
         <v>3780</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1457</v>
+        <v>1497</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8278</v>
+        <v>8319</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01145239701451116</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.004412508205416929</v>
+        <v>0.004534374871831529</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02507844980310277</v>
+        <v>0.0252032065774075</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>11</v>
@@ -8863,19 +8863,19 @@
         <v>11399</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5829</v>
+        <v>6059</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>20241</v>
+        <v>21615</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01544674382720423</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.007899277800313253</v>
+        <v>0.008210451674177362</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02742828499235455</v>
+        <v>0.02928996697880478</v>
       </c>
     </row>
     <row r="18">
@@ -8892,19 +8892,19 @@
         <v>12195</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6578</v>
+        <v>6118</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>21278</v>
+        <v>20212</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02989852981168914</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01612864834737219</v>
+        <v>0.01500007905335447</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05216843711186982</v>
+        <v>0.04955460989767464</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>6</v>
@@ -8913,19 +8913,19 @@
         <v>4674</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1974</v>
+        <v>1825</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>9785</v>
+        <v>10325</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01415969709475452</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.005981260159349602</v>
+        <v>0.005528852641074961</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02964259359652745</v>
+        <v>0.03127837007383747</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>17</v>
@@ -8934,19 +8934,19 @@
         <v>16869</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>10359</v>
+        <v>9931</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>28364</v>
+        <v>26487</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02285854132143158</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01403767718119922</v>
+        <v>0.01345695155668477</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0384365053676643</v>
+        <v>0.03589245618925246</v>
       </c>
     </row>
     <row r="19">
@@ -8963,19 +8963,19 @@
         <v>44292</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>32023</v>
+        <v>30650</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>60126</v>
+        <v>59986</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1085937712996017</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07851473614046869</v>
+        <v>0.07514705749099501</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1474159767196149</v>
+        <v>0.1470721735434202</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>28</v>
@@ -8984,19 +8984,19 @@
         <v>20759</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>14124</v>
+        <v>13818</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29508</v>
+        <v>29717</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06288866357288343</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04279023961919891</v>
+        <v>0.04186329601849675</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08939588223691815</v>
+        <v>0.09002727599460142</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>66</v>
@@ -9005,19 +9005,19 @@
         <v>65050</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>50939</v>
+        <v>50770</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>82558</v>
+        <v>82647</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08814985159290906</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06902685803055644</v>
+        <v>0.06879912346604217</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1118745925521465</v>
+        <v>0.1119951805343818</v>
       </c>
     </row>
     <row r="20">
@@ -9034,19 +9034,19 @@
         <v>331985</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>313157</v>
+        <v>310932</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>347331</v>
+        <v>348312</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8139568762542992</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7677950577544819</v>
+        <v>0.762338593799887</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8515819322751456</v>
+        <v>0.8539864609952417</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>371</v>
@@ -9055,19 +9055,19 @@
         <v>299442</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>288907</v>
+        <v>288687</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>308011</v>
+        <v>307790</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9071625276372476</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8752473725404307</v>
+        <v>0.8745811982167793</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9331245063520104</v>
+        <v>0.9324547760115882</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>625</v>
@@ -9076,19 +9076,19 @@
         <v>631427</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>610325</v>
+        <v>610990</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>649999</v>
+        <v>650258</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8556478151418377</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8270524823223724</v>
+        <v>0.8279538276201047</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8808145523101863</v>
+        <v>0.8811656299293833</v>
       </c>
     </row>
     <row r="21">
@@ -9180,19 +9180,19 @@
         <v>11303</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5568</v>
+        <v>5895</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>20280</v>
+        <v>18134</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02230837232174511</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01098986325076142</v>
+        <v>0.01163567255288908</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04002694641592963</v>
+        <v>0.03579021402157993</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -9201,19 +9201,19 @@
         <v>4975</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2149</v>
+        <v>2035</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10298</v>
+        <v>10241</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01126933132155948</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004866670545940906</v>
+        <v>0.004608980782719456</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02332419713519169</v>
+        <v>0.02319512988153896</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>18</v>
@@ -9222,19 +9222,19 @@
         <v>16278</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>9905</v>
+        <v>9832</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>25491</v>
+        <v>25402</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01716819692315641</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01044653826175317</v>
+        <v>0.01036994097595201</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02688455013197475</v>
+        <v>0.02679053528232198</v>
       </c>
     </row>
     <row r="23">
@@ -9251,19 +9251,19 @@
         <v>5594</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2027</v>
+        <v>2224</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>12485</v>
+        <v>12087</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01104015013724489</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.003999987285554387</v>
+        <v>0.004389274846424186</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02464115207368416</v>
+        <v>0.02385714883153023</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>7</v>
@@ -9272,19 +9272,19 @@
         <v>4766</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1935</v>
+        <v>2079</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>9225</v>
+        <v>9679</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01079475698482195</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.004382813281861414</v>
+        <v>0.00471010249610001</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02089524080349005</v>
+        <v>0.02192403449940345</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>13</v>
@@ -9293,19 +9293,19 @@
         <v>10359</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6031</v>
+        <v>5509</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>17516</v>
+        <v>17060</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01092588624013234</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.006360700809710742</v>
+        <v>0.005809888509664907</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01847359281103811</v>
+        <v>0.01799231571379339</v>
       </c>
     </row>
     <row r="24">
@@ -9322,19 +9322,19 @@
         <v>8993</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4530</v>
+        <v>4796</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16218</v>
+        <v>15647</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01774965702862622</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.008941075349515737</v>
+        <v>0.009466082130804526</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03200943723828601</v>
+        <v>0.03088257900846787</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>11</v>
@@ -9343,19 +9343,19 @@
         <v>7368</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3618</v>
+        <v>3688</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>12448</v>
+        <v>13504</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.01668819779380709</v>
+        <v>0.0166881977938071</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.008194661299108343</v>
+        <v>0.008352364369669442</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02819455461999983</v>
+        <v>0.0305875113616036</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>21</v>
@@ -9364,19 +9364,19 @@
         <v>16361</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>10414</v>
+        <v>10494</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>24998</v>
+        <v>25489</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.01725540334795501</v>
+        <v>0.01725540334795502</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01098314722708494</v>
+        <v>0.01106727378659998</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0263643508998926</v>
+        <v>0.02688306009645554</v>
       </c>
     </row>
     <row r="25">
@@ -9393,19 +9393,19 @@
         <v>46514</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>34513</v>
+        <v>33685</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>64456</v>
+        <v>61941</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.091804776628766</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06811808949401947</v>
+        <v>0.06648334627064273</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1272168096606762</v>
+        <v>0.1222528723262112</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>42</v>
@@ -9414,19 +9414,19 @@
         <v>30464</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>22190</v>
+        <v>22486</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>40773</v>
+        <v>40637</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.0690028673243263</v>
+        <v>0.06900286732432631</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05025985722589371</v>
+        <v>0.05093239437505936</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09235168976866583</v>
+        <v>0.09204451539230572</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>87</v>
@@ -9435,19 +9435,19 @@
         <v>76978</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>60742</v>
+        <v>61514</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>94246</v>
+        <v>95070</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.08118738574802184</v>
+        <v>0.08118738574802185</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06406365116646957</v>
+        <v>0.06487747346412097</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09939920942670058</v>
+        <v>0.1002684913039522</v>
       </c>
     </row>
     <row r="26">
@@ -9464,19 +9464,19 @@
         <v>434258</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>414284</v>
+        <v>416610</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>448779</v>
+        <v>449747</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8570970438836177</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8176756303348004</v>
+        <v>0.8222657961288221</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8857571441252003</v>
+        <v>0.887667845166525</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>523</v>
@@ -9485,19 +9485,19 @@
         <v>393923</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>382079</v>
+        <v>380809</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>404877</v>
+        <v>403502</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8922448465754852</v>
+        <v>0.8922448465754853</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8654180176580446</v>
+        <v>0.8625421256067722</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9170581384800031</v>
+        <v>0.9139430509985627</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>915</v>
@@ -9506,19 +9506,19 @@
         <v>828181</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>808666</v>
+        <v>807803</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>848285</v>
+        <v>846271</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8734631277407343</v>
+        <v>0.8734631277407344</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8528809102920268</v>
+        <v>0.8519710955978255</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8946664445250526</v>
+        <v>0.8925418784073794</v>
       </c>
     </row>
     <row r="27">
@@ -9610,19 +9610,19 @@
         <v>40736</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>29649</v>
+        <v>28539</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>56983</v>
+        <v>55215</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.02147312944403758</v>
+        <v>0.02147312944403757</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01562860823654888</v>
+        <v>0.01504376783046878</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03003688084011853</v>
+        <v>0.02910505422375898</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>14</v>
@@ -9631,19 +9631,19 @@
         <v>10007</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>5607</v>
+        <v>6236</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>16680</v>
+        <v>16438</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.006703773289831702</v>
+        <v>0.006703773289831701</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.003756529894434882</v>
+        <v>0.004177368515662861</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01117416604588592</v>
+        <v>0.01101195096453852</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>50</v>
@@ -9652,19 +9652,19 @@
         <v>50743</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>38329</v>
+        <v>37570</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>67516</v>
+        <v>67627</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01496938061140537</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0113072736509649</v>
+        <v>0.01108322146938028</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01991725019674926</v>
+        <v>0.01995000033547885</v>
       </c>
     </row>
     <row r="29">
@@ -9681,19 +9681,19 @@
         <v>30860</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>20989</v>
+        <v>21793</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>45068</v>
+        <v>45909</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01626712931257699</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01106374351843375</v>
+        <v>0.01148775893005848</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02375644572708951</v>
+        <v>0.02419960634732372</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>24</v>
@@ -9702,19 +9702,19 @@
         <v>17646</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>11570</v>
+        <v>11314</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>26734</v>
+        <v>25263</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01182134464653205</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.007750800461042446</v>
+        <v>0.007579692229853418</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01790990702799998</v>
+        <v>0.01692397059699532</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>52</v>
@@ -9723,19 +9723,19 @@
         <v>48506</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>36588</v>
+        <v>36369</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>63726</v>
+        <v>63888</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01430940911610857</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01079369798002015</v>
+        <v>0.0107289244293232</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01879934744343575</v>
+        <v>0.01884726247191964</v>
       </c>
     </row>
     <row r="30">
@@ -9752,19 +9752,19 @@
         <v>61935</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>47603</v>
+        <v>45615</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>82877</v>
+        <v>82555</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03264741425048635</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02509244137711494</v>
+        <v>0.02404491724443776</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04368660619055983</v>
+        <v>0.04351668149383085</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>30</v>
@@ -9773,19 +9773,19 @@
         <v>20851</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>14494</v>
+        <v>14023</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>30287</v>
+        <v>28836</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01396827243789586</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.009709896461355448</v>
+        <v>0.009394096617175711</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02029013534253439</v>
+        <v>0.0193179182650337</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>84</v>
@@ -9794,19 +9794,19 @@
         <v>82786</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>66128</v>
+        <v>65241</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>107251</v>
+        <v>105048</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02442197466532124</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01950791427567212</v>
+        <v>0.01924620454552379</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03163936551679355</v>
+        <v>0.030989435971219</v>
       </c>
     </row>
     <row r="31">
@@ -9823,19 +9823,19 @@
         <v>191690</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>163651</v>
+        <v>165128</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>225314</v>
+        <v>220550</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1010443767578888</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.08626415998776531</v>
+        <v>0.08704313136466946</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1187681202469792</v>
+        <v>0.1162571269477381</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>138</v>
@@ -9844,19 +9844,19 @@
         <v>97086</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>81706</v>
+        <v>82306</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>113755</v>
+        <v>112969</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.06503972716403698</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0547363297767138</v>
+        <v>0.05513863918991711</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07620653725903044</v>
+        <v>0.07568011174177665</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>314</v>
@@ -9865,19 +9865,19 @@
         <v>288776</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>255896</v>
+        <v>258381</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>321100</v>
+        <v>324434</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.08518957609356449</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.07548988476176657</v>
+        <v>0.07622297360795725</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.09472533098962925</v>
+        <v>0.09570897534299816</v>
       </c>
     </row>
     <row r="32">
@@ -9894,19 +9894,19 @@
         <v>1571866</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1532190</v>
+        <v>1534029</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1607509</v>
+        <v>1606983</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8285679502350103</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8076534264977281</v>
+        <v>0.8086231749448919</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8473562968216474</v>
+        <v>0.8470788778287049</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1790</v>
@@ -9915,19 +9915,19 @@
         <v>1347125</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1325395</v>
+        <v>1326356</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1366078</v>
+        <v>1366408</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.9024668824617035</v>
+        <v>0.9024668824617033</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8879095280803238</v>
+        <v>0.8885535704781146</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9151642514530244</v>
+        <v>0.9153850097445511</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>3130</v>
@@ -9936,19 +9936,19 @@
         <v>2918991</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2877599</v>
+        <v>2873947</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2958818</v>
+        <v>2958972</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.8611096595136005</v>
+        <v>0.8611096595136002</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8488989881236522</v>
+        <v>0.8478216298229616</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8728587081273651</v>
+        <v>0.8729040500084054</v>
       </c>
     </row>
     <row r="33">
